--- a/Zajecia 8/Zajecia8_praca_domowa.xlsx
+++ b/Zajecia 8/Zajecia8_praca_domowa.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Google Drive\Karowa\Warsztaty statystyczne\Zajecia 7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\Karowa_War_Stat\Zajecia 8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4CD8A78A-10B7-4786-A88E-A6BF45804BD4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B03140EF-CD35-47EA-8C11-8EE44CE21FB1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="7530" xr2:uid="{4AAA6041-1E22-41EF-B30A-3D99C71CD0E5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="7530" activeTab="2" xr2:uid="{4AAA6041-1E22-41EF-B30A-3D99C71CD0E5}"/>
   </bookViews>
   <sheets>
     <sheet name="Polecenia" sheetId="8" r:id="rId1"/>
@@ -31,9 +31,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="330">
   <si>
     <t>Liczebność</t>
-  </si>
-  <si>
-    <t>Liczba rodzeństwa</t>
   </si>
   <si>
     <t>Zadanie</t>
@@ -135,9 +132,6 @@
     <t>Błąd przeciętny</t>
   </si>
   <si>
-    <t>Liczba rodzeństwa ^2</t>
-  </si>
-  <si>
     <t>Odchylenie od mediany</t>
   </si>
   <si>
@@ -1014,9 +1008,6 @@
     <t>Liczba filmów z danego gatunku</t>
   </si>
   <si>
-    <t>Wariancje (warunkowe) liczby rodzeństwa</t>
-  </si>
-  <si>
     <t>Miary rozproszenia</t>
   </si>
   <si>
@@ -1054,6 +1045,15 @@
   </si>
   <si>
     <t>2. W drugim zadaniu poproszę o analizy rozkładów dla zaokrąglonych zmiennych z ocenami (karta Dane, kolumna I)</t>
+  </si>
+  <si>
+    <t>Ocena</t>
+  </si>
+  <si>
+    <t>Ocena ^ 2</t>
+  </si>
+  <si>
+    <t>Wariancje (warunkowe) Średni czas filmów</t>
   </si>
 </sst>
 </file>
@@ -1288,6 +1288,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1297,26 +1317,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1682,75 +1682,75 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8776C3AA-B955-45C4-92F6-449C7783BD48}">
   <dimension ref="B4:G18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="B4" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B8" s="21" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C9" s="32"/>
+      <c r="C9" s="23"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="27"/>
+      <c r="B12" s="24" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12" s="25"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="26"/>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D16" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E16" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="18" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D18" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1776,54 +1776,54 @@
   </cols>
   <sheetData>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="31"/>
+      <c r="B14" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="29"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" t="s">
+      <c r="E15" t="s">
+        <v>310</v>
+      </c>
+      <c r="F15" t="s">
         <v>28</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
         <v>29</v>
       </c>
-      <c r="E15" t="s">
-        <v>312</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>30</v>
       </c>
-      <c r="G15" t="s">
-        <v>31</v>
-      </c>
-      <c r="H15" t="s">
-        <v>32</v>
-      </c>
       <c r="I15" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16" s="22">
+        <v>44043</v>
+      </c>
+      <c r="E16" t="s">
         <v>61</v>
-      </c>
-      <c r="C16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D16" s="28">
-        <v>44043</v>
-      </c>
-      <c r="E16" t="s">
-        <v>63</v>
       </c>
       <c r="F16">
         <v>75</v>
@@ -1841,16 +1841,16 @@
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="28">
+        <v>63</v>
+      </c>
+      <c r="D17" s="22">
         <v>43842</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F17">
         <v>93</v>
@@ -1868,16 +1868,16 @@
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="28">
+        <v>65</v>
+      </c>
+      <c r="D18" s="22">
         <v>43882</v>
       </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F18">
         <v>87</v>
@@ -1895,16 +1895,16 @@
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D19" s="28">
+        <v>68</v>
+      </c>
+      <c r="D19" s="22">
         <v>44027</v>
       </c>
       <c r="E19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F19">
         <v>88</v>
@@ -1922,16 +1922,16 @@
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D20" s="28">
+        <v>70</v>
+      </c>
+      <c r="D20" s="22">
         <v>43882</v>
       </c>
       <c r="E20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F20">
         <v>117</v>
@@ -1949,16 +1949,16 @@
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D21" s="28">
+        <v>72</v>
+      </c>
+      <c r="D21" s="22">
         <v>43880</v>
       </c>
       <c r="E21" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F21">
         <v>104</v>
@@ -1976,16 +1976,16 @@
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C22" t="s">
-        <v>76</v>
-      </c>
-      <c r="D22" s="28">
+        <v>74</v>
+      </c>
+      <c r="D22" s="22">
         <v>43867</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F22">
         <v>104</v>
@@ -2003,16 +2003,16 @@
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="28">
+        <v>32</v>
+      </c>
+      <c r="D23" s="22">
         <v>43837</v>
       </c>
       <c r="E23" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F23">
         <v>101</v>
@@ -2030,16 +2030,16 @@
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C24" t="s">
-        <v>79</v>
-      </c>
-      <c r="D24" s="28">
+        <v>77</v>
+      </c>
+      <c r="D24" s="22">
         <v>44033</v>
       </c>
       <c r="E24" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F24">
         <v>90</v>
@@ -2057,16 +2057,16 @@
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C25" t="s">
-        <v>81</v>
-      </c>
-      <c r="D25" s="28">
+        <v>79</v>
+      </c>
+      <c r="D25" s="22">
         <v>43847</v>
       </c>
       <c r="E25" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F25">
         <v>81</v>
@@ -2084,16 +2084,16 @@
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>83</v>
-      </c>
-      <c r="D26" s="28">
+        <v>81</v>
+      </c>
+      <c r="D26" s="22">
         <v>43884</v>
       </c>
       <c r="E26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F26">
         <v>100</v>
@@ -2111,16 +2111,16 @@
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
-      </c>
-      <c r="D27" s="28">
+        <v>83</v>
+      </c>
+      <c r="D27" s="22">
         <v>43860</v>
       </c>
       <c r="E27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F27">
         <v>115</v>
@@ -2138,16 +2138,16 @@
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="28">
+        <v>85</v>
+      </c>
+      <c r="D28" s="22">
         <v>43847</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F28">
         <v>86</v>
@@ -2165,16 +2165,16 @@
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" t="s">
-        <v>89</v>
-      </c>
-      <c r="D29" s="28">
+        <v>87</v>
+      </c>
+      <c r="D29" s="22">
         <v>43952</v>
       </c>
       <c r="E29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F29">
         <v>120</v>
@@ -2192,16 +2192,16 @@
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="22">
+        <v>43861</v>
+      </c>
+      <c r="E30" t="s">
         <v>90</v>
-      </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" s="28">
-        <v>43861</v>
-      </c>
-      <c r="E30" t="s">
-        <v>92</v>
       </c>
       <c r="F30">
         <v>124</v>
@@ -2219,16 +2219,16 @@
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
-      </c>
-      <c r="D31" s="28">
+        <v>92</v>
+      </c>
+      <c r="D31" s="22">
         <v>44020</v>
       </c>
       <c r="E31" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F31">
         <v>90</v>
@@ -2246,16 +2246,16 @@
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="28">
+        <v>94</v>
+      </c>
+      <c r="D32" s="22">
         <v>43880</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32">
         <v>90</v>
@@ -2273,16 +2273,16 @@
     </row>
     <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="28">
+        <v>96</v>
+      </c>
+      <c r="D33" s="22">
         <v>43971</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33">
         <v>86</v>
@@ -2300,16 +2300,16 @@
     </row>
     <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
-      </c>
-      <c r="D34" s="28">
+        <v>98</v>
+      </c>
+      <c r="D34" s="22">
         <v>43847</v>
       </c>
       <c r="E34" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F34">
         <v>60</v>
@@ -2327,16 +2327,16 @@
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
-      </c>
-      <c r="D35" s="28">
+        <v>100</v>
+      </c>
+      <c r="D35" s="22">
         <v>43933</v>
       </c>
       <c r="E35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F35">
         <v>107</v>
@@ -2354,16 +2354,16 @@
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C36" t="s">
-        <v>104</v>
-      </c>
-      <c r="D36" s="28">
+        <v>102</v>
+      </c>
+      <c r="D36" s="22">
         <v>43860</v>
       </c>
       <c r="E36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F36">
         <v>110</v>
@@ -2381,16 +2381,16 @@
     </row>
     <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
-      </c>
-      <c r="D37" s="28">
+        <v>104</v>
+      </c>
+      <c r="D37" s="22">
         <v>43853</v>
       </c>
       <c r="E37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F37">
         <v>86</v>
@@ -2408,16 +2408,16 @@
     </row>
     <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
-      </c>
-      <c r="D38" s="28">
+        <v>106</v>
+      </c>
+      <c r="D38" s="22">
         <v>43875</v>
       </c>
       <c r="E38" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F38">
         <v>84</v>
@@ -2435,16 +2435,16 @@
     </row>
     <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C39" t="s">
-        <v>110</v>
-      </c>
-      <c r="D39" s="28">
+        <v>108</v>
+      </c>
+      <c r="D39" s="22">
         <v>43831</v>
       </c>
       <c r="E39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F39">
         <v>116</v>
@@ -2462,16 +2462,16 @@
     </row>
     <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="28">
+        <v>110</v>
+      </c>
+      <c r="D40" s="22">
         <v>44064</v>
       </c>
       <c r="E40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F40">
         <v>117</v>
@@ -2489,16 +2489,16 @@
     </row>
     <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="28">
+        <v>112</v>
+      </c>
+      <c r="D41" s="22">
         <v>43866</v>
       </c>
       <c r="E41" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F41">
         <v>94</v>
@@ -2516,16 +2516,16 @@
     </row>
     <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
-      </c>
-      <c r="D42" s="28">
+        <v>114</v>
+      </c>
+      <c r="D42" s="22">
         <v>43832</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F42">
         <v>121</v>
@@ -2543,16 +2543,16 @@
     </row>
     <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C43" t="s">
-        <v>118</v>
-      </c>
-      <c r="D43" s="28">
+        <v>116</v>
+      </c>
+      <c r="D43" s="22">
         <v>43877</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F43">
         <v>85</v>
@@ -2570,16 +2570,16 @@
     </row>
     <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="28">
+        <v>118</v>
+      </c>
+      <c r="D44" s="22">
         <v>43990</v>
       </c>
       <c r="E44" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F44">
         <v>89</v>
@@ -2597,16 +2597,16 @@
     </row>
     <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" t="s">
-        <v>122</v>
-      </c>
-      <c r="D45" s="28">
+        <v>120</v>
+      </c>
+      <c r="D45" s="22">
         <v>43853</v>
       </c>
       <c r="E45" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F45">
         <v>119</v>
@@ -2624,16 +2624,16 @@
     </row>
     <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
-      </c>
-      <c r="D46" s="28">
+        <v>122</v>
+      </c>
+      <c r="D46" s="22">
         <v>43860</v>
       </c>
       <c r="E46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F46">
         <v>110</v>
@@ -2651,16 +2651,16 @@
     </row>
     <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>126</v>
-      </c>
-      <c r="D47" s="28">
+        <v>124</v>
+      </c>
+      <c r="D47" s="22">
         <v>43894</v>
       </c>
       <c r="E47" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F47">
         <v>90</v>
@@ -2678,16 +2678,16 @@
     </row>
     <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C48" t="s">
-        <v>128</v>
-      </c>
-      <c r="D48" s="28">
+        <v>126</v>
+      </c>
+      <c r="D48" s="22">
         <v>43941</v>
       </c>
       <c r="E48" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F48">
         <v>93</v>
@@ -2705,16 +2705,16 @@
     </row>
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C49" t="s">
-        <v>130</v>
-      </c>
-      <c r="D49" s="28">
+        <v>128</v>
+      </c>
+      <c r="D49" s="22">
         <v>43860</v>
       </c>
       <c r="E49" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F49">
         <v>94</v>
@@ -2732,16 +2732,16 @@
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
-        <v>36</v>
-      </c>
-      <c r="D50" s="28">
+        <v>34</v>
+      </c>
+      <c r="D50" s="22">
         <v>43980</v>
       </c>
       <c r="E50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F50">
         <v>97</v>
@@ -2759,16 +2759,16 @@
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>132</v>
-      </c>
-      <c r="D51" s="28">
+        <v>130</v>
+      </c>
+      <c r="D51" s="22">
         <v>43853</v>
       </c>
       <c r="E51" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F51">
         <v>97</v>
@@ -2786,16 +2786,16 @@
     </row>
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>134</v>
-      </c>
-      <c r="D52" s="28">
+        <v>132</v>
+      </c>
+      <c r="D52" s="22">
         <v>43997</v>
       </c>
       <c r="E52" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F52">
         <v>84</v>
@@ -2813,16 +2813,16 @@
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="28">
+        <v>134</v>
+      </c>
+      <c r="D53" s="22">
         <v>43956</v>
       </c>
       <c r="E53" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F53">
         <v>88</v>
@@ -2840,16 +2840,16 @@
     </row>
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>138</v>
-      </c>
-      <c r="D54" s="28">
+        <v>136</v>
+      </c>
+      <c r="D54" s="22">
         <v>43887</v>
       </c>
       <c r="E54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F54">
         <v>90</v>
@@ -2867,16 +2867,16 @@
     </row>
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D55" s="28">
+        <v>138</v>
+      </c>
+      <c r="D55" s="22">
         <v>43875</v>
       </c>
       <c r="E55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F55">
         <v>154</v>
@@ -2894,16 +2894,16 @@
     </row>
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="28">
+        <v>140</v>
+      </c>
+      <c r="D56" s="22">
         <v>43954</v>
       </c>
       <c r="E56" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F56">
         <v>86</v>
@@ -2921,16 +2921,16 @@
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>144</v>
-      </c>
-      <c r="D57" s="28">
+        <v>142</v>
+      </c>
+      <c r="D57" s="22">
         <v>44071</v>
       </c>
       <c r="E57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57">
         <v>98</v>
@@ -2948,16 +2948,16 @@
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>146</v>
-      </c>
-      <c r="D58" s="28">
+        <v>144</v>
+      </c>
+      <c r="D58" s="22">
         <v>43868</v>
       </c>
       <c r="E58" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F58">
         <v>153</v>
@@ -2975,16 +2975,16 @@
     </row>
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="28">
+        <v>146</v>
+      </c>
+      <c r="D59" s="22">
         <v>43868</v>
       </c>
       <c r="E59" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F59">
         <v>118</v>
@@ -3002,16 +3002,16 @@
     </row>
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
-        <v>150</v>
-      </c>
-      <c r="D60" s="28">
+        <v>148</v>
+      </c>
+      <c r="D60" s="22">
         <v>43875</v>
       </c>
       <c r="E60" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F60">
         <v>95</v>
@@ -3029,16 +3029,16 @@
     </row>
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>152</v>
-      </c>
-      <c r="D61" s="28">
+        <v>150</v>
+      </c>
+      <c r="D61" s="22">
         <v>43875</v>
       </c>
       <c r="E61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F61">
         <v>105</v>
@@ -3056,16 +3056,16 @@
     </row>
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>154</v>
-      </c>
-      <c r="D62" s="28">
+        <v>152</v>
+      </c>
+      <c r="D62" s="22">
         <v>44012</v>
       </c>
       <c r="E62" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F62">
         <v>73</v>
@@ -3083,16 +3083,16 @@
     </row>
     <row r="63" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>156</v>
-      </c>
-      <c r="D63" s="28">
+        <v>154</v>
+      </c>
+      <c r="D63" s="22">
         <v>43875</v>
       </c>
       <c r="E63" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F63">
         <v>151</v>
@@ -3110,16 +3110,16 @@
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
-      </c>
-      <c r="D64" s="28">
+        <v>156</v>
+      </c>
+      <c r="D64" s="22">
         <v>43962</v>
       </c>
       <c r="E64" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F64">
         <v>85</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>160</v>
-      </c>
-      <c r="D65" s="28">
+        <v>158</v>
+      </c>
+      <c r="D65" s="22">
         <v>43877</v>
       </c>
       <c r="E65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F65">
         <v>144</v>
@@ -3164,16 +3164,16 @@
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>162</v>
-      </c>
-      <c r="D66" s="28">
+        <v>160</v>
+      </c>
+      <c r="D66" s="22">
         <v>43865</v>
       </c>
       <c r="E66" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F66">
         <v>100</v>
@@ -3191,16 +3191,16 @@
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
-      </c>
-      <c r="D67" s="28">
+        <v>162</v>
+      </c>
+      <c r="D67" s="22">
         <v>43896</v>
       </c>
       <c r="E67" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F67">
         <v>97</v>
@@ -3218,16 +3218,16 @@
     </row>
     <row r="68" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>166</v>
-      </c>
-      <c r="D68" s="28">
+        <v>164</v>
+      </c>
+      <c r="D68" s="22">
         <v>43980</v>
       </c>
       <c r="E68" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F68">
         <v>122</v>
@@ -3245,16 +3245,16 @@
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C69" t="s">
-        <v>168</v>
-      </c>
-      <c r="D69" s="28">
+        <v>166</v>
+      </c>
+      <c r="D69" s="22">
         <v>43952</v>
       </c>
       <c r="E69" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F69">
         <v>78</v>
@@ -3272,16 +3272,16 @@
     </row>
     <row r="70" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>170</v>
-      </c>
-      <c r="D70" s="28">
+        <v>168</v>
+      </c>
+      <c r="D70" s="22">
         <v>43861</v>
       </c>
       <c r="E70" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F70">
         <v>134</v>
@@ -3299,16 +3299,16 @@
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
-        <v>172</v>
-      </c>
-      <c r="D71" s="28">
+        <v>170</v>
+      </c>
+      <c r="D71" s="22">
         <v>44041</v>
       </c>
       <c r="E71" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F71">
         <v>96</v>
@@ -3326,16 +3326,16 @@
     </row>
     <row r="72" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
-      </c>
-      <c r="D72" s="28">
+        <v>36</v>
+      </c>
+      <c r="D72" s="22">
         <v>43868</v>
       </c>
       <c r="E72" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F72">
         <v>130</v>
@@ -3353,16 +3353,16 @@
     </row>
     <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C73" t="s">
-        <v>174</v>
-      </c>
-      <c r="D73" s="28">
+        <v>172</v>
+      </c>
+      <c r="D73" s="22">
         <v>43882</v>
       </c>
       <c r="E73" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F73">
         <v>114</v>
@@ -3380,16 +3380,16 @@
     </row>
     <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C74" t="s">
-        <v>176</v>
-      </c>
-      <c r="D74" s="28">
+        <v>174</v>
+      </c>
+      <c r="D74" s="22">
         <v>43833</v>
       </c>
       <c r="E74" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F74">
         <v>107</v>
@@ -3407,16 +3407,16 @@
     </row>
     <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C75" t="s">
-        <v>178</v>
-      </c>
-      <c r="D75" s="28">
+        <v>176</v>
+      </c>
+      <c r="D75" s="22">
         <v>43875</v>
       </c>
       <c r="E75" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F75">
         <v>98</v>
@@ -3434,16 +3434,16 @@
     </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C76" t="s">
-        <v>180</v>
-      </c>
-      <c r="D76" s="28">
+        <v>178</v>
+      </c>
+      <c r="D76" s="22">
         <v>43861</v>
       </c>
       <c r="E76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F76">
         <v>128</v>
@@ -3461,16 +3461,16 @@
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C77" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" s="28">
+        <v>180</v>
+      </c>
+      <c r="D77" s="22">
         <v>43845</v>
       </c>
       <c r="E77" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F77">
         <v>118</v>
@@ -3488,16 +3488,16 @@
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C78" t="s">
-        <v>40</v>
-      </c>
-      <c r="D78" s="28">
+        <v>38</v>
+      </c>
+      <c r="D78" s="22">
         <v>44071</v>
       </c>
       <c r="E78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F78">
         <v>105</v>
@@ -3515,16 +3515,16 @@
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C79" t="s">
-        <v>184</v>
-      </c>
-      <c r="D79" s="28">
+        <v>182</v>
+      </c>
+      <c r="D79" s="22">
         <v>43853</v>
       </c>
       <c r="E79" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F79">
         <v>100</v>
@@ -3542,16 +3542,16 @@
     </row>
     <row r="80" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C80" t="s">
-        <v>186</v>
-      </c>
-      <c r="D80" s="28">
+        <v>184</v>
+      </c>
+      <c r="D80" s="22">
         <v>43946</v>
       </c>
       <c r="E80" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F80">
         <v>89</v>
@@ -3569,16 +3569,16 @@
     </row>
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C81" t="s">
-        <v>42</v>
-      </c>
-      <c r="D81" s="28">
+        <v>40</v>
+      </c>
+      <c r="D81" s="22">
         <v>43955</v>
       </c>
       <c r="E81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F81">
         <v>90</v>
@@ -3596,16 +3596,16 @@
     </row>
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C82" t="s">
-        <v>188</v>
-      </c>
-      <c r="D82" s="28">
+        <v>186</v>
+      </c>
+      <c r="D82" s="22">
         <v>43931</v>
       </c>
       <c r="E82" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F82">
         <v>102</v>
@@ -3623,16 +3623,16 @@
     </row>
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C83" t="s">
-        <v>44</v>
-      </c>
-      <c r="D83" s="28">
+        <v>42</v>
+      </c>
+      <c r="D83" s="22">
         <v>43882</v>
       </c>
       <c r="E83" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F83">
         <v>143</v>
@@ -3650,16 +3650,16 @@
     </row>
     <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D84" s="28">
+        <v>44</v>
+      </c>
+      <c r="D84" s="22">
         <v>43970</v>
       </c>
       <c r="E84" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F84">
         <v>85</v>
@@ -3677,16 +3677,16 @@
     </row>
     <row r="85" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C85" t="s">
-        <v>48</v>
-      </c>
-      <c r="D85" s="28">
+        <v>46</v>
+      </c>
+      <c r="D85" s="22">
         <v>44071</v>
       </c>
       <c r="E85" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F85">
         <v>106</v>
@@ -3704,16 +3704,16 @@
     </row>
     <row r="86" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C86" t="s">
-        <v>190</v>
-      </c>
-      <c r="D86" s="28">
+        <v>188</v>
+      </c>
+      <c r="D86" s="22">
         <v>43847</v>
       </c>
       <c r="E86" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F86">
         <v>164</v>
@@ -3731,16 +3731,16 @@
     </row>
     <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C87" t="s">
-        <v>192</v>
-      </c>
-      <c r="D87" s="28">
+        <v>190</v>
+      </c>
+      <c r="D87" s="22">
         <v>43873</v>
       </c>
       <c r="E87" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F87">
         <v>104</v>
@@ -3758,16 +3758,16 @@
     </row>
     <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C88" t="s">
-        <v>194</v>
-      </c>
-      <c r="D88" s="28">
+        <v>192</v>
+      </c>
+      <c r="D88" s="22">
         <v>43902</v>
       </c>
       <c r="E88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F88">
         <v>120</v>
@@ -3785,16 +3785,16 @@
     </row>
     <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C89" t="s">
-        <v>196</v>
-      </c>
-      <c r="D89" s="28">
+        <v>194</v>
+      </c>
+      <c r="D89" s="22">
         <v>43912</v>
       </c>
       <c r="E89" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F89">
         <v>91</v>
@@ -3812,16 +3812,16 @@
     </row>
     <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C90" t="s">
-        <v>198</v>
-      </c>
-      <c r="D90" s="28">
+        <v>196</v>
+      </c>
+      <c r="D90" s="22">
         <v>44036</v>
       </c>
       <c r="E90" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F90">
         <v>74</v>
@@ -3839,16 +3839,16 @@
     </row>
     <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C91" t="s">
-        <v>200</v>
-      </c>
-      <c r="D91" s="28">
+        <v>198</v>
+      </c>
+      <c r="D91" s="22">
         <v>43987</v>
       </c>
       <c r="E91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F91">
         <v>60</v>
@@ -3866,16 +3866,16 @@
     </row>
     <row r="92" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C92" t="s">
-        <v>202</v>
-      </c>
-      <c r="D92" s="28">
+        <v>200</v>
+      </c>
+      <c r="D92" s="22">
         <v>44036</v>
       </c>
       <c r="E92" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F92">
         <v>116</v>
@@ -3893,16 +3893,16 @@
     </row>
     <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C93" t="s">
-        <v>204</v>
-      </c>
-      <c r="D93" s="28">
+        <v>202</v>
+      </c>
+      <c r="D93" s="22">
         <v>44029</v>
       </c>
       <c r="E93" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F93">
         <v>124</v>
@@ -3920,16 +3920,16 @@
     </row>
     <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C94" t="s">
-        <v>206</v>
-      </c>
-      <c r="D94" s="28">
+        <v>204</v>
+      </c>
+      <c r="D94" s="22">
         <v>44007</v>
       </c>
       <c r="E94" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F94">
         <v>100</v>
@@ -3947,16 +3947,16 @@
     </row>
     <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C95" t="s">
-        <v>208</v>
-      </c>
-      <c r="D95" s="28">
+        <v>206</v>
+      </c>
+      <c r="D95" s="22">
         <v>44030</v>
       </c>
       <c r="E95" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F95">
         <v>58</v>
@@ -3974,16 +3974,16 @@
     </row>
     <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C96" t="s">
-        <v>210</v>
-      </c>
-      <c r="D96" s="28">
+        <v>208</v>
+      </c>
+      <c r="D96" s="22">
         <v>43970</v>
       </c>
       <c r="E96" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F96">
         <v>90</v>
@@ -4001,16 +4001,16 @@
     </row>
     <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C97" t="s">
-        <v>212</v>
-      </c>
-      <c r="D97" s="28">
+        <v>210</v>
+      </c>
+      <c r="D97" s="22">
         <v>43923</v>
       </c>
       <c r="E97" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F97">
         <v>122</v>
@@ -4028,16 +4028,16 @@
     </row>
     <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
-      </c>
-      <c r="D98" s="28">
+        <v>212</v>
+      </c>
+      <c r="D98" s="22">
         <v>43879</v>
       </c>
       <c r="E98" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F98">
         <v>87</v>
@@ -4055,16 +4055,16 @@
     </row>
     <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C99" t="s">
-        <v>50</v>
-      </c>
-      <c r="D99" s="28">
+        <v>48</v>
+      </c>
+      <c r="D99" s="22">
         <v>44026</v>
       </c>
       <c r="E99" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F99">
         <v>94</v>
@@ -4082,16 +4082,16 @@
     </row>
     <row r="100" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
-      </c>
-      <c r="D100" s="28">
+        <v>214</v>
+      </c>
+      <c r="D100" s="22">
         <v>43973</v>
       </c>
       <c r="E100" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F100">
         <v>108</v>
@@ -4109,16 +4109,16 @@
     </row>
     <row r="101" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C101" t="s">
-        <v>218</v>
-      </c>
-      <c r="D101" s="28">
+        <v>216</v>
+      </c>
+      <c r="D101" s="22">
         <v>43931</v>
       </c>
       <c r="E101" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F101">
         <v>109</v>
@@ -4136,16 +4136,16 @@
     </row>
     <row r="102" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
-      </c>
-      <c r="D102" s="28">
+        <v>218</v>
+      </c>
+      <c r="D102" s="22">
         <v>43888</v>
       </c>
       <c r="E102" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F102">
         <v>90</v>
@@ -4163,16 +4163,16 @@
     </row>
     <row r="103" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C103" t="s">
-        <v>222</v>
-      </c>
-      <c r="D103" s="28">
+        <v>220</v>
+      </c>
+      <c r="D103" s="22">
         <v>43840</v>
       </c>
       <c r="E103" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F103">
         <v>84</v>
@@ -4190,16 +4190,16 @@
     </row>
     <row r="104" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C104" t="s">
-        <v>224</v>
-      </c>
-      <c r="D104" s="28">
+        <v>222</v>
+      </c>
+      <c r="D104" s="22">
         <v>44102</v>
       </c>
       <c r="E104" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F104">
         <v>93</v>
@@ -4217,16 +4217,16 @@
     </row>
     <row r="105" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C105" t="s">
-        <v>226</v>
-      </c>
-      <c r="D105" s="28">
+        <v>224</v>
+      </c>
+      <c r="D105" s="22">
         <v>43896</v>
       </c>
       <c r="E105" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F105">
         <v>106</v>
@@ -4244,16 +4244,16 @@
     </row>
     <row r="106" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C106" t="s">
-        <v>228</v>
-      </c>
-      <c r="D106" s="28">
+        <v>226</v>
+      </c>
+      <c r="D106" s="22">
         <v>43893</v>
       </c>
       <c r="E106" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F106">
         <v>84</v>
@@ -4271,16 +4271,16 @@
     </row>
     <row r="107" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C107" t="s">
-        <v>230</v>
-      </c>
-      <c r="D107" s="28">
+        <v>228</v>
+      </c>
+      <c r="D107" s="22">
         <v>43868</v>
       </c>
       <c r="E107" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F107">
         <v>115</v>
@@ -4298,16 +4298,16 @@
     </row>
     <row r="108" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C108" t="s">
-        <v>232</v>
-      </c>
-      <c r="D108" s="28">
+        <v>230</v>
+      </c>
+      <c r="D108" s="22">
         <v>44014</v>
       </c>
       <c r="E108" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F108">
         <v>93</v>
@@ -4325,16 +4325,16 @@
     </row>
     <row r="109" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C109" t="s">
-        <v>234</v>
-      </c>
-      <c r="D109" s="28">
+        <v>232</v>
+      </c>
+      <c r="D109" s="22">
         <v>44063</v>
       </c>
       <c r="E109" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F109">
         <v>103</v>
@@ -4352,16 +4352,16 @@
     </row>
     <row r="110" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
-      </c>
-      <c r="D110" s="28">
+        <v>234</v>
+      </c>
+      <c r="D110" s="22">
         <v>43970</v>
       </c>
       <c r="E110" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F110">
         <v>52</v>
@@ -4379,16 +4379,16 @@
     </row>
     <row r="111" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C111" t="s">
-        <v>52</v>
-      </c>
-      <c r="D111" s="28">
+        <v>50</v>
+      </c>
+      <c r="D111" s="22">
         <v>44022</v>
       </c>
       <c r="E111" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F111">
         <v>82</v>
@@ -4406,16 +4406,16 @@
     </row>
     <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C112" t="s">
-        <v>238</v>
-      </c>
-      <c r="D112" s="28">
+        <v>236</v>
+      </c>
+      <c r="D112" s="22">
         <v>43906</v>
       </c>
       <c r="E112" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F112">
         <v>101</v>
@@ -4433,16 +4433,16 @@
     </row>
     <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C113" t="s">
-        <v>240</v>
-      </c>
-      <c r="D113" s="28">
+        <v>238</v>
+      </c>
+      <c r="D113" s="22">
         <v>43998</v>
       </c>
       <c r="E113" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F113">
         <v>80</v>
@@ -4460,16 +4460,16 @@
     </row>
     <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C114" t="s">
-        <v>242</v>
-      </c>
-      <c r="D114" s="28">
+        <v>240</v>
+      </c>
+      <c r="D114" s="22">
         <v>43893</v>
       </c>
       <c r="E114" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F114">
         <v>87</v>
@@ -4487,16 +4487,16 @@
     </row>
     <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C115" t="s">
-        <v>244</v>
-      </c>
-      <c r="D115" s="28">
+        <v>242</v>
+      </c>
+      <c r="D115" s="22">
         <v>44044</v>
       </c>
       <c r="E115" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F115">
         <v>88</v>
@@ -4514,16 +4514,16 @@
     </row>
     <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C116" t="s">
-        <v>246</v>
-      </c>
-      <c r="D116" s="28">
+        <v>244</v>
+      </c>
+      <c r="D116" s="22">
         <v>43922</v>
       </c>
       <c r="E116" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F116">
         <v>90</v>
@@ -4541,16 +4541,16 @@
     </row>
     <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C117" t="s">
-        <v>248</v>
-      </c>
-      <c r="D117" s="28">
+        <v>246</v>
+      </c>
+      <c r="D117" s="22">
         <v>43998</v>
       </c>
       <c r="E117" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F117">
         <v>97</v>
@@ -4568,16 +4568,16 @@
     </row>
     <row r="118" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C118" t="s">
-        <v>81</v>
-      </c>
-      <c r="D118" s="28">
+        <v>79</v>
+      </c>
+      <c r="D118" s="22">
         <v>44092</v>
       </c>
       <c r="E118" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F118">
         <v>98</v>
@@ -4595,16 +4595,16 @@
     </row>
     <row r="119" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
-      </c>
-      <c r="D119" s="28">
+        <v>249</v>
+      </c>
+      <c r="D119" s="22">
         <v>43895</v>
       </c>
       <c r="E119" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F119">
         <v>92</v>
@@ -4622,16 +4622,16 @@
     </row>
     <row r="120" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C120" t="s">
-        <v>253</v>
-      </c>
-      <c r="D120" s="28">
+        <v>251</v>
+      </c>
+      <c r="D120" s="22">
         <v>43913</v>
       </c>
       <c r="E120" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F120">
         <v>95</v>
@@ -4649,16 +4649,16 @@
     </row>
     <row r="121" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C121" t="s">
-        <v>255</v>
-      </c>
-      <c r="D121" s="28">
+        <v>253</v>
+      </c>
+      <c r="D121" s="22">
         <v>43943</v>
       </c>
       <c r="E121" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F121">
         <v>74</v>
@@ -4676,16 +4676,16 @@
     </row>
     <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C122" t="s">
-        <v>257</v>
-      </c>
-      <c r="D122" s="28">
+        <v>255</v>
+      </c>
+      <c r="D122" s="22">
         <v>43882</v>
       </c>
       <c r="E122" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F122">
         <v>74</v>
@@ -4703,16 +4703,16 @@
     </row>
     <row r="123" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C123" t="s">
-        <v>54</v>
-      </c>
-      <c r="D123" s="28">
+        <v>52</v>
+      </c>
+      <c r="D123" s="22">
         <v>44099</v>
       </c>
       <c r="E123" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F123">
         <v>95</v>
@@ -4730,16 +4730,16 @@
     </row>
     <row r="124" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C124" t="s">
-        <v>259</v>
-      </c>
-      <c r="D124" s="28">
+        <v>257</v>
+      </c>
+      <c r="D124" s="22">
         <v>43873</v>
       </c>
       <c r="E124" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F124">
         <v>100</v>
@@ -4757,16 +4757,16 @@
     </row>
     <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C125" t="s">
-        <v>56</v>
-      </c>
-      <c r="D125" s="28">
+        <v>54</v>
+      </c>
+      <c r="D125" s="22">
         <v>43903</v>
       </c>
       <c r="E125" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F125">
         <v>120</v>
@@ -4784,16 +4784,16 @@
     </row>
     <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C126" t="s">
-        <v>261</v>
-      </c>
-      <c r="D126" s="28">
+        <v>259</v>
+      </c>
+      <c r="D126" s="22">
         <v>44013</v>
       </c>
       <c r="E126" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F126">
         <v>103</v>
@@ -4811,16 +4811,16 @@
     </row>
     <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C127" t="s">
-        <v>263</v>
-      </c>
-      <c r="D127" s="28">
+        <v>261</v>
+      </c>
+      <c r="D127" s="22">
         <v>43935</v>
       </c>
       <c r="E127" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F127">
         <v>87</v>
@@ -4838,16 +4838,16 @@
     </row>
     <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C128" t="s">
-        <v>265</v>
-      </c>
-      <c r="D128" s="28">
+        <v>263</v>
+      </c>
+      <c r="D128" s="22">
         <v>43903</v>
       </c>
       <c r="E128" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F128">
         <v>98</v>
@@ -4865,16 +4865,16 @@
     </row>
     <row r="129" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C129" t="s">
-        <v>267</v>
-      </c>
-      <c r="D129" s="28">
+        <v>265</v>
+      </c>
+      <c r="D129" s="22">
         <v>43854</v>
       </c>
       <c r="E129" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F129">
         <v>109</v>
@@ -4892,16 +4892,16 @@
     </row>
     <row r="130" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C130" t="s">
-        <v>269</v>
-      </c>
-      <c r="D130" s="28">
+        <v>267</v>
+      </c>
+      <c r="D130" s="22">
         <v>43942</v>
       </c>
       <c r="E130" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F130">
         <v>120</v>
@@ -4919,16 +4919,16 @@
     </row>
     <row r="131" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C131" t="s">
-        <v>271</v>
-      </c>
-      <c r="D131" s="28">
+        <v>269</v>
+      </c>
+      <c r="D131" s="22">
         <v>43953</v>
       </c>
       <c r="E131" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F131">
         <v>102</v>
@@ -4946,16 +4946,16 @@
     </row>
     <row r="132" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C132" t="s">
-        <v>273</v>
-      </c>
-      <c r="D132" s="28">
+        <v>271</v>
+      </c>
+      <c r="D132" s="22">
         <v>44134</v>
       </c>
       <c r="E132" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F132">
         <v>111</v>
@@ -4973,16 +4973,16 @@
     </row>
     <row r="133" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C133" t="s">
-        <v>275</v>
-      </c>
-      <c r="D133" s="28">
+        <v>273</v>
+      </c>
+      <c r="D133" s="22">
         <v>43940</v>
       </c>
       <c r="E133" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F133">
         <v>96</v>
@@ -5000,16 +5000,16 @@
     </row>
     <row r="134" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C134" t="s">
-        <v>277</v>
-      </c>
-      <c r="D134" s="28">
+        <v>275</v>
+      </c>
+      <c r="D134" s="22">
         <v>43900</v>
       </c>
       <c r="E134" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F134">
         <v>71</v>
@@ -5027,16 +5027,16 @@
     </row>
     <row r="135" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C135" t="s">
-        <v>279</v>
-      </c>
-      <c r="D135" s="28">
+        <v>277</v>
+      </c>
+      <c r="D135" s="22">
         <v>44029</v>
       </c>
       <c r="E135" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F135">
         <v>88</v>
@@ -5054,16 +5054,16 @@
     </row>
     <row r="136" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C136" t="s">
-        <v>281</v>
-      </c>
-      <c r="D136" s="28">
+        <v>279</v>
+      </c>
+      <c r="D136" s="22">
         <v>43924</v>
       </c>
       <c r="E136" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F136">
         <v>90</v>
@@ -5081,16 +5081,16 @@
     </row>
     <row r="137" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C137" t="s">
-        <v>283</v>
-      </c>
-      <c r="D137" s="28">
+        <v>281</v>
+      </c>
+      <c r="D137" s="22">
         <v>43847</v>
       </c>
       <c r="E137" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F137">
         <v>120</v>
@@ -5108,16 +5108,16 @@
     </row>
     <row r="138" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C138" t="s">
-        <v>58</v>
-      </c>
-      <c r="D138" s="28">
+        <v>56</v>
+      </c>
+      <c r="D138" s="22">
         <v>44025</v>
       </c>
       <c r="E138" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F138">
         <v>82</v>
@@ -5135,16 +5135,16 @@
     </row>
     <row r="139" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C139" t="s">
-        <v>285</v>
-      </c>
-      <c r="D139" s="28">
+        <v>283</v>
+      </c>
+      <c r="D139" s="22">
         <v>43875</v>
       </c>
       <c r="E139" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F139">
         <v>100</v>
@@ -5162,16 +5162,16 @@
     </row>
     <row r="140" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C140" t="s">
-        <v>287</v>
-      </c>
-      <c r="D140" s="28">
+        <v>285</v>
+      </c>
+      <c r="D140" s="22">
         <v>43844</v>
       </c>
       <c r="E140" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F140">
         <v>87</v>
@@ -5189,16 +5189,16 @@
     </row>
     <row r="141" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C141" t="s">
-        <v>289</v>
-      </c>
-      <c r="D141" s="28">
+        <v>287</v>
+      </c>
+      <c r="D141" s="22">
         <v>43889</v>
       </c>
       <c r="E141" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F141">
         <v>93</v>
@@ -5216,16 +5216,16 @@
     </row>
     <row r="142" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C142" t="s">
-        <v>291</v>
-      </c>
-      <c r="D142" s="28">
+        <v>289</v>
+      </c>
+      <c r="D142" s="22">
         <v>44049</v>
       </c>
       <c r="E142" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F142">
         <v>88</v>
@@ -5243,16 +5243,16 @@
     </row>
     <row r="143" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C143" t="s">
-        <v>293</v>
-      </c>
-      <c r="D143" s="28">
+        <v>291</v>
+      </c>
+      <c r="D143" s="22">
         <v>44021</v>
       </c>
       <c r="E143" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F143">
         <v>94</v>
@@ -5270,16 +5270,16 @@
     </row>
     <row r="144" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C144" t="s">
-        <v>295</v>
-      </c>
-      <c r="D144" s="28">
+        <v>293</v>
+      </c>
+      <c r="D144" s="22">
         <v>43889</v>
       </c>
       <c r="E144" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F144">
         <v>92</v>
@@ -5297,16 +5297,16 @@
     </row>
     <row r="145" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C145" t="s">
-        <v>297</v>
-      </c>
-      <c r="D145" s="28">
+        <v>295</v>
+      </c>
+      <c r="D145" s="22">
         <v>43966</v>
       </c>
       <c r="E145" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F145">
         <v>89</v>
@@ -5324,16 +5324,16 @@
     </row>
     <row r="146" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C146" t="s">
-        <v>299</v>
-      </c>
-      <c r="D146" s="28">
+        <v>297</v>
+      </c>
+      <c r="D146" s="22">
         <v>43861</v>
       </c>
       <c r="E146" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F146">
         <v>119</v>
@@ -5351,16 +5351,16 @@
     </row>
     <row r="147" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C147" t="s">
-        <v>301</v>
-      </c>
-      <c r="D147" s="28">
+        <v>299</v>
+      </c>
+      <c r="D147" s="22">
         <v>44026</v>
       </c>
       <c r="E147" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F147">
         <v>108</v>
@@ -5378,16 +5378,16 @@
     </row>
     <row r="148" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C148" t="s">
-        <v>60</v>
-      </c>
-      <c r="D148" s="28">
+        <v>58</v>
+      </c>
+      <c r="D148" s="22">
         <v>43896</v>
       </c>
       <c r="E148" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F148">
         <v>80</v>
@@ -5405,16 +5405,16 @@
     </row>
     <row r="149" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C149" t="s">
-        <v>303</v>
-      </c>
-      <c r="D149" s="28">
+        <v>301</v>
+      </c>
+      <c r="D149" s="22">
         <v>43854</v>
       </c>
       <c r="E149" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F149">
         <v>87</v>
@@ -5432,16 +5432,16 @@
     </row>
     <row r="150" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C150" t="s">
-        <v>305</v>
-      </c>
-      <c r="D150" s="28">
+        <v>303</v>
+      </c>
+      <c r="D150" s="22">
         <v>43936</v>
       </c>
       <c r="E150" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F150">
         <v>95</v>
@@ -5459,16 +5459,16 @@
     </row>
     <row r="151" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C151" t="s">
-        <v>307</v>
-      </c>
-      <c r="D151" s="28">
+        <v>305</v>
+      </c>
+      <c r="D151" s="22">
         <v>43887</v>
       </c>
       <c r="E151" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F151">
         <v>85</v>
@@ -5486,16 +5486,16 @@
     </row>
     <row r="152" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C152" t="s">
-        <v>309</v>
-      </c>
-      <c r="D152" s="28">
+        <v>307</v>
+      </c>
+      <c r="D152" s="22">
         <v>43968</v>
       </c>
       <c r="E152" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F152">
         <v>86</v>
@@ -5513,16 +5513,16 @@
     </row>
     <row r="153" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C153" t="s">
-        <v>311</v>
-      </c>
-      <c r="D153" s="28">
+        <v>309</v>
+      </c>
+      <c r="D153" s="22">
         <v>43859</v>
       </c>
       <c r="E153" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F153">
         <v>95</v>
@@ -5550,8 +5550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D37814A-4520-48F6-A108-C75718E62358}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:B11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5579,14 +5579,14 @@
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
-      <c r="B2" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+      <c r="B2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -5602,7 +5602,7 @@
     <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="7" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
@@ -5614,7 +5614,7 @@
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="4"/>
       <c r="B5" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -5637,10 +5637,10 @@
       <c r="A7" s="4"/>
       <c r="B7" s="19"/>
       <c r="C7" s="8" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -5650,57 +5650,57 @@
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
       <c r="B8" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
-      <c r="G8" s="22" t="s">
-        <v>11</v>
+      <c r="G8" s="30" t="s">
+        <v>10</v>
       </c>
       <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="22"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="22"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
-      <c r="G11" s="22"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="4"/>
       <c r="B12" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -5742,7 +5742,7 @@
     <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
@@ -5754,7 +5754,7 @@
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
       <c r="B17" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -5773,16 +5773,16 @@
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="1:8" ht="60" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
       <c r="B19" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>316</v>
+        <v>329</v>
       </c>
       <c r="D19" s="18" t="str">
-        <f>D7</f>
+        <f t="shared" ref="D19:D24" si="0">D7</f>
         <v>Liczba filmów z danego gatunku</v>
       </c>
       <c r="E19" s="17"/>
@@ -5793,73 +5793,73 @@
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="4"/>
       <c r="B20" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="12">
-        <f>D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E20" s="6"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="22" t="s">
-        <v>4</v>
+      <c r="G20" s="30" t="s">
+        <v>3</v>
       </c>
       <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
       <c r="B21" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="12">
-        <f>D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E21" s="6"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="22"/>
+      <c r="G21" s="30"/>
       <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="12">
-        <f>D10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E22" s="6"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="22"/>
+      <c r="G22" s="30"/>
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="12">
-        <f>D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E23" s="6"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="22"/>
+      <c r="G23" s="30"/>
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="12">
-        <f>D12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="6"/>
@@ -5900,7 +5900,7 @@
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="16"/>
       <c r="D28" s="4"/>
@@ -5912,7 +5912,7 @@
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="16"/>
       <c r="D29" s="4"/>
@@ -5934,7 +5934,7 @@
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="4"/>
@@ -5984,7 +5984,7 @@
   <dimension ref="B5:Y27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6002,106 +6002,106 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="L5" s="24"/>
-      <c r="M5" s="24"/>
-      <c r="N5" s="24"/>
-      <c r="O5" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="24"/>
-      <c r="R5" s="24"/>
-      <c r="V5" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="W5" s="24"/>
-      <c r="X5" s="24"/>
-      <c r="Y5" s="24"/>
-    </row>
-    <row r="6" spans="2:25" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="V5" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+    </row>
+    <row r="6" spans="2:25" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="R6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>1</v>
+        <v>327</v>
       </c>
       <c r="U6" s="3" t="s">
-        <v>23</v>
+        <v>328</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="X6" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.25">
@@ -6425,17 +6425,17 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
+      <c r="B18" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="20"/>
       <c r="D19" s="20"/>
@@ -6444,7 +6444,7 @@
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -6453,7 +6453,7 @@
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -6470,17 +6470,17 @@
       <c r="F22" s="1"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="24" t="s">
-        <v>317</v>
-      </c>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
+      <c r="B24" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="20"/>
       <c r="D25" s="20"/>
@@ -6489,7 +6489,7 @@
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -6498,7 +6498,7 @@
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
